--- a/Mathematical Model/Scarcity Model/parameters_w_50/beta/nonEmpty_diff_a_alpha4_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/beta/nonEmpty_diff_a_alpha4_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4545454545454545</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="C3">
-        <v>0.5164113785557987</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="D3">
-        <v>0.4933920704845815</v>
+        <v>0.4703389830508475</v>
       </c>
       <c r="E3">
-        <v>0.5042016806722689</v>
+        <v>0.5053533190578159</v>
       </c>
       <c r="F3">
-        <v>0.5096525096525096</v>
+        <v>0.5039370078740157</v>
       </c>
       <c r="G3">
-        <v>0.5020576131687243</v>
+        <v>0.4916317991631799</v>
       </c>
       <c r="H3">
-        <v>0.498</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4666666666666667</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="C4">
-        <v>0.5304347826086957</v>
+        <v>0.5010845986984815</v>
       </c>
       <c r="D4">
-        <v>0.3695652173913043</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="E4">
-        <v>0.4978540772532189</v>
+        <v>0.5230547550432276</v>
       </c>
       <c r="F4">
-        <v>0.5467625899280576</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="G4">
-        <v>0.509325681492109</v>
+        <v>0.4935251798561151</v>
       </c>
       <c r="H4">
-        <v>0.484</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5257731958762887</v>
+        <v>0.5057471264367817</v>
       </c>
       <c r="C5">
-        <v>0.542016806722689</v>
+        <v>0.5134575569358178</v>
       </c>
       <c r="D5">
-        <v>0.3826086956521739</v>
+        <v>0.4601769911504425</v>
       </c>
       <c r="E5">
-        <v>0.5097529258777633</v>
+        <v>0.5170157068062827</v>
       </c>
       <c r="F5">
-        <v>0.5416666666666666</v>
+        <v>0.4504504504504505</v>
       </c>
       <c r="G5">
-        <v>0.501891551071879</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="H5">
-        <v>0.482</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5098039215686274</v>
+        <v>0.5824175824175825</v>
       </c>
       <c r="C6">
-        <v>0.5326732673267327</v>
+        <v>0.5158102766798419</v>
       </c>
       <c r="D6">
-        <v>0.4090909090909091</v>
+        <v>0.4356435643564356</v>
       </c>
       <c r="E6">
-        <v>0.4924242424242424</v>
+        <v>0.5198463508322664</v>
       </c>
       <c r="F6">
-        <v>0.4777777777777778</v>
+        <v>0.4175824175824176</v>
       </c>
       <c r="G6">
-        <v>0.5078407720144753</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="H6">
-        <v>0.476</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4563106796116505</v>
+        <v>0.4851485148514851</v>
       </c>
       <c r="C7">
-        <v>0.5398886827458256</v>
+        <v>0.5037037037037037</v>
       </c>
       <c r="D7">
-        <v>0.4339622641509434</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0.485424588086185</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="F7">
-        <v>0.4875</v>
+        <v>0.3904761904761905</v>
       </c>
       <c r="G7">
-        <v>0.5164433617539586</v>
+        <v>0.4975429975429975</v>
       </c>
       <c r="H7">
-        <v>0.468</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4830508474576271</v>
+        <v>0.53</v>
       </c>
       <c r="C8">
-        <v>0.558303886925795</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="D8">
-        <v>0.4311926605504587</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="E8">
-        <v>0.4915912031047865</v>
+        <v>0.5078328981723238</v>
       </c>
       <c r="F8">
-        <v>0.4555555555555555</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="G8">
-        <v>0.5215782983970407</v>
+        <v>0.4943109987357775</v>
       </c>
       <c r="H8">
-        <v>0.442</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5083333333333333</v>
+        <v>0.5175438596491229</v>
       </c>
       <c r="C9">
-        <v>0.561525129982669</v>
+        <v>0.5237315875613748</v>
       </c>
       <c r="D9">
-        <v>0.3790322580645161</v>
+        <v>0.4580152671755725</v>
       </c>
       <c r="E9">
-        <v>0.4947643979057592</v>
+        <v>0.5143229166666666</v>
       </c>
       <c r="F9">
-        <v>0.3873873873873874</v>
+        <v>0.4018691588785047</v>
       </c>
       <c r="G9">
-        <v>0.5249376558603491</v>
+        <v>0.4844333748443337</v>
       </c>
       <c r="H9">
-        <v>0.44</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5079365079365079</v>
+        <v>0.4661016949152542</v>
       </c>
       <c r="C10">
-        <v>0.5657894736842105</v>
+        <v>0.5321543408360129</v>
       </c>
       <c r="D10">
-        <v>0.3484848484848485</v>
+        <v>0.4495412844036697</v>
       </c>
       <c r="E10">
-        <v>0.4946524064171123</v>
+        <v>0.5186666666666667</v>
       </c>
       <c r="F10">
-        <v>0.3235294117647059</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="G10">
-        <v>0.5127877237851662</v>
+        <v>0.4873737373737373</v>
       </c>
       <c r="H10">
-        <v>0.436</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5486725663716814</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C11">
-        <v>0.565015479876161</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D11">
-        <v>0.3484848484848485</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E11">
-        <v>0.499339498018494</v>
+        <v>0.5211640211640212</v>
       </c>
       <c r="F11">
-        <v>0.3873873873873874</v>
+        <v>0.3545454545454546</v>
       </c>
       <c r="G11">
-        <v>0.5143570536828964</v>
+        <v>0.4837092731829574</v>
       </c>
       <c r="H11">
-        <v>0.436</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.485981308411215</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C12">
-        <v>0.5597667638483965</v>
+        <v>0.5484330484330484</v>
       </c>
       <c r="D12">
-        <v>0.3304347826086956</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0.4940397350993377</v>
+        <v>0.5066137566137566</v>
       </c>
       <c r="F12">
-        <v>0.3173076923076923</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="G12">
-        <v>0.491183879093199</v>
+        <v>0.4722921914357683</v>
       </c>
       <c r="H12">
-        <v>0.456</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4343434343434344</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="C13">
-        <v>0.5696551724137932</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="D13">
-        <v>0.3389830508474576</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
-        <v>0.4868421052631579</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="F13">
-        <v>0.2831858407079646</v>
+        <v>0.40625</v>
       </c>
       <c r="G13">
-        <v>0.4962121212121212</v>
+        <v>0.4684014869888476</v>
       </c>
       <c r="H13">
-        <v>0.436</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4489795918367347</v>
+        <v>0.5045045045045045</v>
       </c>
       <c r="C14">
-        <v>0.5757575757575758</v>
+        <v>0.53125</v>
       </c>
       <c r="D14">
-        <v>0.352</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E14">
-        <v>0.4821192052980132</v>
+        <v>0.512258064516129</v>
       </c>
       <c r="F14">
-        <v>0.3571428571428572</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="G14">
-        <v>0.4916344916344916</v>
+        <v>0.4672435105067985</v>
       </c>
       <c r="H14">
-        <v>0.432</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.47</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="C15">
-        <v>0.5669191919191919</v>
+        <v>0.5395408163265306</v>
       </c>
       <c r="D15">
-        <v>0.4122137404580153</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="E15">
-        <v>0.481283422459893</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="F15">
-        <v>0.375</v>
+        <v>0.4077669902912621</v>
       </c>
       <c r="G15">
-        <v>0.4816223067173637</v>
+        <v>0.4627054361567636</v>
       </c>
       <c r="H15">
-        <v>0.418</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4953271028037383</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="C16">
-        <v>0.5676328502415459</v>
+        <v>0.5522755227552275</v>
       </c>
       <c r="D16">
-        <v>0.4841269841269841</v>
+        <v>0.421875</v>
       </c>
       <c r="E16">
-        <v>0.4756898817345598</v>
+        <v>0.5167336010709505</v>
       </c>
       <c r="F16">
-        <v>0.3888888888888889</v>
+        <v>0.4086956521739131</v>
       </c>
       <c r="G16">
-        <v>0.4740177439797212</v>
+        <v>0.4587628865979381</v>
       </c>
       <c r="H16">
-        <v>0.422</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5405405405405406</v>
+        <v>0.4913793103448276</v>
       </c>
       <c r="C17">
-        <v>0.5606060606060606</v>
+        <v>0.5470798569725864</v>
       </c>
       <c r="D17">
-        <v>0.4435483870967742</v>
+        <v>0.3802816901408451</v>
       </c>
       <c r="E17">
-        <v>0.473202614379085</v>
+        <v>0.5187667560321716</v>
       </c>
       <c r="F17">
-        <v>0.3564356435643564</v>
+        <v>0.4051724137931034</v>
       </c>
       <c r="G17">
-        <v>0.4643304130162703</v>
+        <v>0.4510309278350516</v>
       </c>
       <c r="H17">
-        <v>0.412</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5045871559633027</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="C18">
-        <v>0.5569334836527621</v>
+        <v>0.5451428571428572</v>
       </c>
       <c r="D18">
-        <v>0.4796747967479675</v>
+        <v>0.3801652892561984</v>
       </c>
       <c r="E18">
-        <v>0.4736842105263158</v>
+        <v>0.5086782376502003</v>
       </c>
       <c r="F18">
-        <v>0.2941176470588235</v>
+        <v>0.4134615384615384</v>
       </c>
       <c r="G18">
-        <v>0.4725</v>
+        <v>0.4492385786802031</v>
       </c>
       <c r="H18">
-        <v>0.394</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5233644859813084</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C19">
-        <v>0.5676855895196506</v>
+        <v>0.5425764192139738</v>
       </c>
       <c r="D19">
-        <v>0.4740740740740741</v>
+        <v>0.4741379310344828</v>
       </c>
       <c r="E19">
-        <v>0.4727755644090306</v>
+        <v>0.503242542153048</v>
       </c>
       <c r="F19">
-        <v>0.3211009174311927</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="G19">
-        <v>0.4816687737041719</v>
+        <v>0.4437577255871446</v>
       </c>
       <c r="H19">
-        <v>0.368</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.4661016949152542</v>
       </c>
       <c r="C20">
-        <v>0.5662148070907195</v>
+        <v>0.5496264674493063</v>
       </c>
       <c r="D20">
-        <v>0.4</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="E20">
-        <v>0.4738955823293173</v>
+        <v>0.4843342036553525</v>
       </c>
       <c r="F20">
-        <v>0.3245614035087719</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="G20">
-        <v>0.4766118836915297</v>
+        <v>0.4339152119700748</v>
       </c>
       <c r="H20">
-        <v>0.37</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5229357798165137</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C21">
-        <v>0.5779816513761468</v>
+        <v>0.5482546201232033</v>
       </c>
       <c r="D21">
-        <v>0.4</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="E21">
-        <v>0.4739652870493992</v>
+        <v>0.4922077922077922</v>
       </c>
       <c r="F21">
-        <v>0.3392857142857143</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="G21">
-        <v>0.4757033248081842</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="H21">
-        <v>0.36</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.4954128440366973</v>
       </c>
       <c r="C22">
-        <v>0.5754901960784313</v>
+        <v>0.5502487562189055</v>
       </c>
       <c r="D22">
-        <v>0.3149606299212598</v>
+        <v>0.4260869565217391</v>
       </c>
       <c r="E22">
-        <v>0.4802631578947368</v>
+        <v>0.4934895833333333</v>
       </c>
       <c r="F22">
-        <v>0.3392857142857143</v>
+        <v>0.3645833333333333</v>
       </c>
       <c r="G22">
-        <v>0.4655612244897959</v>
+        <v>0.4348925410872314</v>
       </c>
       <c r="H22">
-        <v>0.364</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5757575757575758</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C23">
-        <v>0.5733333333333334</v>
+        <v>0.5436046511627907</v>
       </c>
       <c r="D23">
-        <v>0.3508771929824561</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="E23">
-        <v>0.4798962386511025</v>
+        <v>0.4940239043824701</v>
       </c>
       <c r="F23">
-        <v>0.2947368421052631</v>
+        <v>0.3853211009174312</v>
       </c>
       <c r="G23">
-        <v>0.4680851063829787</v>
+        <v>0.4443021766965429</v>
       </c>
       <c r="H23">
-        <v>0.352</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5961538461538461</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="C24">
-        <v>0.5663551401869159</v>
+        <v>0.5441039925719592</v>
       </c>
       <c r="D24">
-        <v>0.4117647058823529</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="E24">
-        <v>0.4718954248366013</v>
+        <v>0.5079575596816976</v>
       </c>
       <c r="F24">
-        <v>0.3263157894736842</v>
+        <v>0.4086956521739131</v>
       </c>
       <c r="G24">
-        <v>0.4578163771712159</v>
+        <v>0.445019404915912</v>
       </c>
       <c r="H24">
-        <v>0.364</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5514018691588785</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C25">
-        <v>0.5636363636363636</v>
+        <v>0.5392953929539296</v>
       </c>
       <c r="D25">
-        <v>0.3969465648854962</v>
+        <v>0.475</v>
       </c>
       <c r="E25">
-        <v>0.4748677248677249</v>
+        <v>0.4980694980694981</v>
       </c>
       <c r="F25">
-        <v>0.3177570093457944</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="G25">
-        <v>0.4528301886792453</v>
+        <v>0.434010152284264</v>
       </c>
       <c r="H25">
-        <v>0.356</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.5392156862745098</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="C26">
-        <v>0.5600000000000001</v>
+        <v>0.5373134328358209</v>
       </c>
       <c r="D26">
-        <v>0.3760683760683761</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E26">
-        <v>0.4767596281540505</v>
+        <v>0.5019404915912031</v>
       </c>
       <c r="F26">
-        <v>0.3070175438596491</v>
+        <v>0.4158415841584158</v>
       </c>
       <c r="G26">
-        <v>0.4606598984771574</v>
+        <v>0.4334170854271357</v>
       </c>
       <c r="H26">
-        <v>0.35</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.57</v>
+        <v>0.4851485148514851</v>
       </c>
       <c r="C27">
-        <v>0.5561268209083119</v>
+        <v>0.5417721518987342</v>
       </c>
       <c r="D27">
-        <v>0.4516129032258064</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="E27">
-        <v>0.4780361757105943</v>
+        <v>0.4987405541561713</v>
       </c>
       <c r="F27">
-        <v>0.3518518518518519</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="G27">
-        <v>0.4583333333333333</v>
+        <v>0.4278606965174129</v>
       </c>
       <c r="H27">
-        <v>0.332</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.5238095238095238</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C28">
-        <v>0.5514096185737977</v>
+        <v>0.5426929392446633</v>
       </c>
       <c r="D28">
-        <v>0.4513274336283186</v>
+        <v>0.4684684684684685</v>
       </c>
       <c r="E28">
-        <v>0.4799482535575679</v>
+        <v>0.4916129032258065</v>
       </c>
       <c r="F28">
-        <v>0.3608247422680412</v>
+        <v>0.4476190476190476</v>
       </c>
       <c r="G28">
-        <v>0.4456928838951311</v>
+        <v>0.4303797468354431</v>
       </c>
       <c r="H28">
-        <v>0.328</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.5045045045045045</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C29">
-        <v>0.5541090317331163</v>
+        <v>0.5349025974025974</v>
       </c>
       <c r="D29">
-        <v>0.4224137931034483</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="E29">
-        <v>0.4859335038363171</v>
+        <v>0.4875164257555847</v>
       </c>
       <c r="F29">
-        <v>0.3365384615384616</v>
+        <v>0.4051724137931034</v>
       </c>
       <c r="G29">
-        <v>0.4473358116480793</v>
+        <v>0.4278481012658228</v>
       </c>
       <c r="H29">
-        <v>0.316</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.5221238938053098</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="C30">
-        <v>0.5584</v>
+        <v>0.5385214007782101</v>
       </c>
       <c r="D30">
-        <v>0.3958333333333333</v>
+        <v>0.4453781512605042</v>
       </c>
       <c r="E30">
-        <v>0.4980595084087969</v>
+        <v>0.4940397350993377</v>
       </c>
       <c r="F30">
-        <v>0.3557692307692308</v>
+        <v>0.4036697247706422</v>
       </c>
       <c r="G30">
-        <v>0.440251572327044</v>
+        <v>0.4389312977099237</v>
       </c>
       <c r="H30">
-        <v>0.332</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5045045045045045</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="C31">
-        <v>0.5471698113207547</v>
+        <v>0.5380517503805176</v>
       </c>
       <c r="D31">
-        <v>0.375</v>
+        <v>0.425</v>
       </c>
       <c r="E31">
-        <v>0.4993614303959131</v>
+        <v>0.487012987012987</v>
       </c>
       <c r="F31">
-        <v>0.3461538461538461</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="G31">
-        <v>0.4427480916030535</v>
+        <v>0.4363177805800756</v>
       </c>
       <c r="H31">
-        <v>0.322</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.4672131147540984</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C32">
-        <v>0.5475638051044084</v>
+        <v>0.5378955114054452</v>
       </c>
       <c r="D32">
-        <v>0.459016393442623</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E32">
-        <v>0.5052083333333334</v>
+        <v>0.4878361075544174</v>
       </c>
       <c r="F32">
-        <v>0.3831775700934579</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G32">
-        <v>0.4371794871794872</v>
+        <v>0.439751552795031</v>
       </c>
       <c r="H32">
-        <v>0.326</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.5050505050505051</v>
+        <v>0.4851485148514851</v>
       </c>
       <c r="C33">
-        <v>0.547673531655225</v>
+        <v>0.541452677916361</v>
       </c>
       <c r="D33">
-        <v>0.4496124031007752</v>
+        <v>0.3831775700934579</v>
       </c>
       <c r="E33">
-        <v>0.5053050397877984</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="F33">
-        <v>0.3454545454545455</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="G33">
-        <v>0.4411764705882353</v>
+        <v>0.4485749690210657</v>
       </c>
       <c r="H33">
-        <v>0.304</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5135135135135135</v>
+        <v>0.5221238938053098</v>
       </c>
       <c r="C34">
-        <v>0.5428779069767442</v>
+        <v>0.5377026074700493</v>
       </c>
       <c r="D34">
-        <v>0.5038167938931297</v>
+        <v>0.3543307086614173</v>
       </c>
       <c r="E34">
-        <v>0.509829619921363</v>
+        <v>0.4866581956797967</v>
       </c>
       <c r="F34">
-        <v>0.3211009174311927</v>
+        <v>0.4019607843137255</v>
       </c>
       <c r="G34">
-        <v>0.4334170854271357</v>
+        <v>0.4533169533169533</v>
       </c>
       <c r="H34">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.4770642201834863</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="C35">
-        <v>0.5399709302325582</v>
+        <v>0.5311843027330063</v>
       </c>
       <c r="D35">
-        <v>0.4918032786885246</v>
+        <v>0.3644859813084112</v>
       </c>
       <c r="E35">
-        <v>0.4966799468791501</v>
+        <v>0.4837451235370611</v>
       </c>
       <c r="F35">
-        <v>0.3297872340425532</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="G35">
-        <v>0.440251572327044</v>
+        <v>0.4512946979038224</v>
       </c>
       <c r="H35">
-        <v>0.302</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.4392523364485981</v>
+        <v>0.5315315315315315</v>
       </c>
       <c r="C36">
-        <v>0.5417558886509636</v>
+        <v>0.5369220151828847</v>
       </c>
       <c r="D36">
-        <v>0.4817518248175183</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="E36">
-        <v>0.5013404825737265</v>
+        <v>0.4773022049286641</v>
       </c>
       <c r="F36">
-        <v>0.3939393939393939</v>
+        <v>0.4607843137254902</v>
       </c>
       <c r="G36">
-        <v>0.4332493702770781</v>
+        <v>0.44625</v>
       </c>
       <c r="H36">
-        <v>0.296</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.4482758620689655</v>
+        <v>0.5338983050847458</v>
       </c>
       <c r="C37">
-        <v>0.5414057063326374</v>
+        <v>0.5365358592692828</v>
       </c>
       <c r="D37">
-        <v>0.4065040650406504</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="E37">
-        <v>0.5113484646194927</v>
+        <v>0.4764397905759162</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>0.4260869565217391</v>
       </c>
       <c r="G37">
-        <v>0.430188679245283</v>
+        <v>0.4483627204030227</v>
       </c>
       <c r="H37">
-        <v>0.29</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.4601769911504425</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="C38">
-        <v>0.5414402173913043</v>
+        <v>0.5327102803738317</v>
       </c>
       <c r="D38">
-        <v>0.4403669724770642</v>
+        <v>0.4</v>
       </c>
       <c r="E38">
-        <v>0.5217948717948718</v>
+        <v>0.4780876494023905</v>
       </c>
       <c r="F38">
-        <v>0.3240740740740741</v>
+        <v>0.4086956521739131</v>
       </c>
       <c r="G38">
-        <v>0.4425216316440049</v>
+        <v>0.459079283887468</v>
       </c>
       <c r="H38">
-        <v>0.286</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.4871794871794872</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C39">
-        <v>0.535475234270415</v>
+        <v>0.533204384268214</v>
       </c>
       <c r="D39">
-        <v>0.4242424242424243</v>
+        <v>0.4298245614035088</v>
       </c>
       <c r="E39">
-        <v>0.5089058524173028</v>
+        <v>0.4722921914357683</v>
       </c>
       <c r="F39">
-        <v>0.35</v>
+        <v>0.3697478991596639</v>
       </c>
       <c r="G39">
-        <v>0.4333333333333333</v>
+        <v>0.4650872817955112</v>
       </c>
       <c r="H39">
-        <v>0.3</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.4953271028037383</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C40">
-        <v>0.5328515111695138</v>
+        <v>0.5322376738305942</v>
       </c>
       <c r="D40">
-        <v>0.4396551724137931</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="E40">
-        <v>0.5121019108280255</v>
+        <v>0.4784263959390863</v>
       </c>
       <c r="F40">
-        <v>0.4</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="G40">
-        <v>0.4312267657992565</v>
+        <v>0.4734848484848485</v>
       </c>
       <c r="H40">
-        <v>0.31</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.5</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C41">
-        <v>0.5347490347490348</v>
+        <v>0.5313081215127092</v>
       </c>
       <c r="D41">
-        <v>0.4017094017094017</v>
+        <v>0.3596491228070176</v>
       </c>
       <c r="E41">
-        <v>0.5240572171651495</v>
+        <v>0.469910371318822</v>
       </c>
       <c r="F41">
-        <v>0.36</v>
+        <v>0.3173076923076923</v>
       </c>
       <c r="G41">
-        <v>0.431592039800995</v>
+        <v>0.4704402515723271</v>
       </c>
       <c r="H41">
-        <v>0.314</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.5660377358490566</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="C42">
-        <v>0.5351043643263758</v>
+        <v>0.5302557704304429</v>
       </c>
       <c r="D42">
-        <v>0.360655737704918</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="E42">
-        <v>0.5313315926892951</v>
+        <v>0.4860186418109188</v>
       </c>
       <c r="F42">
-        <v>0.353448275862069</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G42">
-        <v>0.4427672955974843</v>
+        <v>0.4653846153846154</v>
       </c>
       <c r="H42">
-        <v>0.302</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4473684210526316</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C43">
-        <v>0.5268352868599629</v>
+        <v>0.5271838729383018</v>
       </c>
       <c r="D43">
-        <v>0.3478260869565217</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="E43">
-        <v>0.5230179028132992</v>
+        <v>0.4819759679572764</v>
       </c>
       <c r="F43">
-        <v>0.3050847457627119</v>
+        <v>0.3305084745762712</v>
       </c>
       <c r="G43">
-        <v>0.4394506866416979</v>
+        <v>0.457433290978399</v>
       </c>
       <c r="H43">
-        <v>0.3</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4851485148514851</v>
+        <v>0.504950495049505</v>
       </c>
       <c r="C44">
-        <v>0.5379901960784313</v>
+        <v>0.5260922330097088</v>
       </c>
       <c r="D44">
-        <v>0.3214285714285715</v>
+        <v>0.5</v>
       </c>
       <c r="E44">
-        <v>0.5191815856777494</v>
+        <v>0.4770039421813403</v>
       </c>
       <c r="F44">
-        <v>0.358695652173913</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="G44">
-        <v>0.4461343472750317</v>
+        <v>0.4569620253164557</v>
       </c>
       <c r="H44">
-        <v>0.298</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.4536082474226804</v>
+        <v>0.5092592592592593</v>
       </c>
       <c r="C45">
-        <v>0.5363528009535161</v>
+        <v>0.5257244234180958</v>
       </c>
       <c r="D45">
-        <v>0.3162393162393162</v>
+        <v>0.4214876033057851</v>
       </c>
       <c r="E45">
-        <v>0.5221354166666666</v>
+        <v>0.4688311688311688</v>
       </c>
       <c r="F45">
-        <v>0.3653846153846154</v>
+        <v>0.3009708737864077</v>
       </c>
       <c r="G45">
-        <v>0.4415422885572139</v>
+        <v>0.44625</v>
       </c>
       <c r="H45">
-        <v>0.302</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.4526315789473684</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="C46">
-        <v>0.5379188712522046</v>
+        <v>0.5217896571760604</v>
       </c>
       <c r="D46">
-        <v>0.336</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="E46">
-        <v>0.5291005291005291</v>
+        <v>0.4725415070242657</v>
       </c>
       <c r="F46">
-        <v>0.405940594059406</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="G46">
-        <v>0.4413265306122449</v>
+        <v>0.4343558282208589</v>
       </c>
       <c r="H46">
-        <v>0.3</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.495575221238938</v>
+        <v>0.5108695652173914</v>
       </c>
       <c r="C47">
-        <v>0.5322209436133487</v>
+        <v>0.5174186179326099</v>
       </c>
       <c r="D47">
-        <v>0.3724137931034483</v>
+        <v>0.4351851851851852</v>
       </c>
       <c r="E47">
-        <v>0.5254010695187166</v>
+        <v>0.4635083226632523</v>
       </c>
       <c r="F47">
-        <v>0.3063063063063063</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="G47">
-        <v>0.4389312977099237</v>
+        <v>0.4276960784313725</v>
       </c>
       <c r="H47">
-        <v>0.302</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.4824561403508772</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C48">
-        <v>0.5289066971951918</v>
+        <v>0.5175683212493029</v>
       </c>
       <c r="D48">
-        <v>0.5116279069767442</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="E48">
-        <v>0.5215633423180593</v>
+        <v>0.4663278271918678</v>
       </c>
       <c r="F48">
-        <v>0.3454545454545455</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="G48">
-        <v>0.4397972116603295</v>
+        <v>0.4259485924112607</v>
       </c>
       <c r="H48">
-        <v>0.318</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.4864864864864865</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C49">
-        <v>0.5225733634311512</v>
+        <v>0.5099667774086378</v>
       </c>
       <c r="D49">
-        <v>0.4471544715447154</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="E49">
-        <v>0.5104986876640421</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="F49">
-        <v>0.392156862745098</v>
+        <v>0.375</v>
       </c>
       <c r="G49">
-        <v>0.4318181818181818</v>
+        <v>0.4337050805452293</v>
       </c>
       <c r="H49">
-        <v>0.32</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.4150943396226415</v>
+        <v>0.5754716981132075</v>
       </c>
       <c r="C50">
-        <v>0.5227524972253053</v>
+        <v>0.5090510148107515</v>
       </c>
       <c r="D50">
-        <v>0.5390625</v>
+        <v>0.4628099173553719</v>
       </c>
       <c r="E50">
-        <v>0.5156657963446475</v>
+        <v>0.4812903225806451</v>
       </c>
       <c r="F50">
-        <v>0.4257425742574257</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="G50">
-        <v>0.4292866082603254</v>
+        <v>0.4308841843088418</v>
       </c>
       <c r="H50">
-        <v>0.322</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.4150943396226415</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="C51">
-        <v>0.5252032520325203</v>
+        <v>0.5062398263700488</v>
       </c>
       <c r="D51">
-        <v>0.4308943089430894</v>
+        <v>0.4789915966386555</v>
       </c>
       <c r="E51">
-        <v>0.5151116951379764</v>
+        <v>0.4828042328042328</v>
       </c>
       <c r="F51">
-        <v>0.4234234234234234</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="G51">
-        <v>0.424090338770389</v>
+        <v>0.4235145385587863</v>
       </c>
       <c r="H51">
-        <v>0.332</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5181818181818182</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="C52">
-        <v>0.5246516613076099</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="D52">
-        <v>0.4873949579831933</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="E52">
-        <v>0.5235602094240838</v>
+        <v>0.4784313725490196</v>
       </c>
       <c r="F52">
-        <v>0.4181818181818182</v>
+        <v>0.28</v>
       </c>
       <c r="G52">
-        <v>0.4249363867684479</v>
+        <v>0.4244694132334582</v>
       </c>
       <c r="H52">
-        <v>0.334</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5135135135135135</v>
+        <v>0.5304347826086957</v>
       </c>
       <c r="C53">
-        <v>0.5199362041467305</v>
+        <v>0.5083594566353187</v>
       </c>
       <c r="D53">
+        <v>0.4523809523809524</v>
+      </c>
+      <c r="E53">
+        <v>0.4825806451612903</v>
+      </c>
+      <c r="F53">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="G53">
         <v>0.4285714285714285</v>
       </c>
-      <c r="E53">
-        <v>0.5171052631578947</v>
-      </c>
-      <c r="F53">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="G53">
-        <v>0.4265644955300127</v>
-      </c>
       <c r="H53">
-        <v>0.33</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.4907407407407408</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C54">
-        <v>0.5185577942735949</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="D54">
-        <v>0.373015873015873</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="E54">
-        <v>0.523936170212766</v>
+        <v>0.482444733420026</v>
       </c>
       <c r="F54">
-        <v>0.4434782608695652</v>
+        <v>0.4</v>
       </c>
       <c r="G54">
-        <v>0.4203084832904884</v>
+        <v>0.4103194103194103</v>
       </c>
       <c r="H54">
-        <v>0.328</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5423728813559322</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C55">
-        <v>0.5170603674540682</v>
+        <v>0.5109526235354049</v>
       </c>
       <c r="D55">
-        <v>0.3851851851851852</v>
+        <v>0.4298245614035088</v>
       </c>
       <c r="E55">
-        <v>0.5256064690026954</v>
+        <v>0.4818652849740933</v>
       </c>
       <c r="F55">
-        <v>0.4298245614035088</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G55">
-        <v>0.4281984334203655</v>
+        <v>0.4123456790123457</v>
       </c>
       <c r="H55">
-        <v>0.318</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5454545454545454</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="C56">
-        <v>0.515860634425377</v>
+        <v>0.5123550176500252</v>
       </c>
       <c r="D56">
-        <v>0.4060150375939849</v>
+        <v>0.371900826446281</v>
       </c>
       <c r="E56">
-        <v>0.5343203230148048</v>
+        <v>0.4830729166666667</v>
       </c>
       <c r="F56">
-        <v>0.4193548387096774</v>
+        <v>0.4519230769230769</v>
       </c>
       <c r="G56">
-        <v>0.4291237113402062</v>
+        <v>0.4146948941469489</v>
       </c>
       <c r="H56">
-        <v>0.322</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.4464285714285715</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C57">
-        <v>0.5119959162838182</v>
+        <v>0.5136476426799007</v>
       </c>
       <c r="D57">
-        <v>0.3488372093023256</v>
+        <v>0.3813559322033898</v>
       </c>
       <c r="E57">
-        <v>0.5265251989389921</v>
+        <v>0.4864165588615783</v>
       </c>
       <c r="F57">
-        <v>0.3821138211382114</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="G57">
-        <v>0.430609597924773</v>
+        <v>0.4121287128712871</v>
       </c>
       <c r="H57">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.4953271028037383</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C58">
-        <v>0.5173453996983409</v>
+        <v>0.5170202269363592</v>
       </c>
       <c r="D58">
-        <v>0.4508196721311475</v>
+        <v>0.3486238532110092</v>
       </c>
       <c r="E58">
-        <v>0.5196850393700787</v>
+        <v>0.4787096774193548</v>
       </c>
       <c r="F58">
-        <v>0.4070796460176991</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="G58">
-        <v>0.4245524296675192</v>
+        <v>0.4149326805385557</v>
       </c>
       <c r="H58">
-        <v>0.346</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.4615384615384616</v>
+        <v>0.4476190476190476</v>
       </c>
       <c r="C59">
-        <v>0.5152859960552268</v>
+        <v>0.5193154034229829</v>
       </c>
       <c r="D59">
-        <v>0.4201680672268908</v>
+        <v>0.3909090909090909</v>
       </c>
       <c r="E59">
-        <v>0.5083655083655083</v>
+        <v>0.4802043422733078</v>
       </c>
       <c r="F59">
-        <v>0.4215686274509804</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="G59">
-        <v>0.4246575342465753</v>
+        <v>0.4095940959409594</v>
       </c>
       <c r="H59">
-        <v>0.356</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.4649122807017544</v>
+        <v>0.5092592592592593</v>
       </c>
       <c r="C60">
-        <v>0.5153135634419057</v>
+        <v>0.5208131655372701</v>
       </c>
       <c r="D60">
-        <v>0.4424778761061947</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="E60">
-        <v>0.508301404853129</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="F60">
-        <v>0.3936170212765958</v>
+        <v>0.36</v>
       </c>
       <c r="G60">
-        <v>0.42997542997543</v>
+        <v>0.4054726368159204</v>
       </c>
       <c r="H60">
-        <v>0.346</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.4660194174757282</v>
+        <v>0.4432989690721649</v>
       </c>
       <c r="C61">
-        <v>0.5136038186157518</v>
+        <v>0.5179856115107914</v>
       </c>
       <c r="D61">
-        <v>0.4298245614035088</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E61">
-        <v>0.5056746532156369</v>
+        <v>0.4728682170542636</v>
       </c>
       <c r="F61">
-        <v>0.3448275862068966</v>
+        <v>0.3775510204081632</v>
       </c>
       <c r="G61">
-        <v>0.4395604395604396</v>
+        <v>0.4134495641344956</v>
       </c>
       <c r="H61">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.514018691588785</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="C62">
-        <v>0.5129533678756477</v>
+        <v>0.5252955082742317</v>
       </c>
       <c r="D62">
-        <v>0.4313725490196079</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E62">
-        <v>0.5134443021766966</v>
+        <v>0.4629388816644994</v>
       </c>
       <c r="F62">
-        <v>0.2823529411764706</v>
+        <v>0.35</v>
       </c>
       <c r="G62">
-        <v>0.4468864468864469</v>
+        <v>0.4167709637046308</v>
       </c>
       <c r="H62">
-        <v>0.346</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.4905660377358491</v>
+        <v>0.5412844036697247</v>
       </c>
       <c r="C63">
-        <v>0.5130963517305893</v>
+        <v>0.5219626168224299</v>
       </c>
       <c r="D63">
-        <v>0.4434782608695652</v>
+        <v>0.2900763358778626</v>
       </c>
       <c r="E63">
-        <v>0.5141752577319587</v>
+        <v>0.4730617608409987</v>
       </c>
       <c r="F63">
-        <v>0.3238095238095238</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="G63">
-        <v>0.4422360248447205</v>
+        <v>0.4119138149556401</v>
       </c>
       <c r="H63">
-        <v>0.35</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.5</v>
+        <v>0.4958677685950413</v>
       </c>
       <c r="C64">
-        <v>0.5134011090573013</v>
+        <v>0.5221033038622616</v>
       </c>
       <c r="D64">
-        <v>0.3916666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E64">
-        <v>0.5115681233933161</v>
+        <v>0.4687083888149134</v>
       </c>
       <c r="F64">
-        <v>0.3474576271186441</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="G64">
-        <v>0.4413965087281795</v>
+        <v>0.4083969465648855</v>
       </c>
       <c r="H64">
-        <v>0.348</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.4056603773584906</v>
+        <v>0.4778761061946903</v>
       </c>
       <c r="C65">
-        <v>0.5136986301369864</v>
+        <v>0.5255813953488372</v>
       </c>
       <c r="D65">
-        <v>0.3564356435643564</v>
+        <v>0.3577235772357724</v>
       </c>
       <c r="E65">
-        <v>0.5108005082592122</v>
+        <v>0.4561170212765958</v>
       </c>
       <c r="F65">
-        <v>0.3814432989690721</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="G65">
-        <v>0.4380475594493116</v>
+        <v>0.4048223350253807</v>
       </c>
       <c r="H65">
-        <v>0.358</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.4086021505376344</v>
+        <v>0.4867256637168141</v>
       </c>
       <c r="C66">
-        <v>0.5170556552962298</v>
+        <v>0.5235239852398524</v>
       </c>
       <c r="D66">
-        <v>0.3917525773195876</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="E66">
-        <v>0.5062189054726368</v>
+        <v>0.4484126984126984</v>
       </c>
       <c r="F66">
-        <v>0.375</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="G66">
-        <v>0.4357405140758874</v>
+        <v>0.3966623876765084</v>
       </c>
       <c r="H66">
-        <v>0.348</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,22 +2116,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.4166666666666667</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C67">
-        <v>0.516459074733096</v>
+        <v>0.5243513882567137</v>
       </c>
       <c r="D67">
-        <v>0.3626373626373626</v>
+        <v>0.425</v>
       </c>
       <c r="E67">
-        <v>0.4955414012738854</v>
+        <v>0.4448818897637795</v>
       </c>
       <c r="F67">
-        <v>0.4</v>
+        <v>0.3883495145631068</v>
       </c>
       <c r="G67">
-        <v>0.4390547263681592</v>
+        <v>0.4052697616060226</v>
       </c>
       <c r="H67">
         <v>0.334</v>
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.4301075268817204</v>
+        <v>0.48</v>
       </c>
       <c r="C68">
-        <v>0.5161005734450816</v>
+        <v>0.5232926277702397</v>
       </c>
       <c r="D68">
-        <v>0.3826086956521739</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="E68">
-        <v>0.487741935483871</v>
+        <v>0.4348958333333333</v>
       </c>
       <c r="F68">
-        <v>0.4081632653061225</v>
+        <v>0.3564356435643564</v>
       </c>
       <c r="G68">
-        <v>0.4390547263681592</v>
+        <v>0.3997509339975093</v>
       </c>
       <c r="H68">
-        <v>0.332</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.4693877551020408</v>
+        <v>0.4684684684684685</v>
       </c>
       <c r="C69">
-        <v>0.5137016093953893</v>
+        <v>0.522202486678508</v>
       </c>
       <c r="D69">
-        <v>0.3688524590163935</v>
+        <v>0.371900826446281</v>
       </c>
       <c r="E69">
-        <v>0.4818181818181818</v>
+        <v>0.4434330299089727</v>
       </c>
       <c r="F69">
-        <v>0.422680412371134</v>
+        <v>0.3980582524271845</v>
       </c>
       <c r="G69">
-        <v>0.4429280397022333</v>
+        <v>0.3940149625935162</v>
       </c>
       <c r="H69">
-        <v>0.33</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,22 +2194,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.4166666666666667</v>
+        <v>0.5377358490566038</v>
       </c>
       <c r="C70">
-        <v>0.5148642826367945</v>
+        <v>0.5201952951620062</v>
       </c>
       <c r="D70">
-        <v>0.4347826086956522</v>
+        <v>0.4227642276422764</v>
       </c>
       <c r="E70">
-        <v>0.4778067885117493</v>
+        <v>0.4518229166666667</v>
       </c>
       <c r="F70">
-        <v>0.4</v>
+        <v>0.3173076923076923</v>
       </c>
       <c r="G70">
-        <v>0.4352651048088779</v>
+        <v>0.3945068664169788</v>
       </c>
       <c r="H70">
         <v>0.338</v>
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.4363636363636363</v>
+        <v>0.4830508474576271</v>
       </c>
       <c r="C71">
-        <v>0.5154639175257731</v>
+        <v>0.5173473869126043</v>
       </c>
       <c r="D71">
-        <v>0.3684210526315789</v>
+        <v>0.4016393442622951</v>
       </c>
       <c r="E71">
-        <v>0.4817708333333333</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="F71">
-        <v>0.4382022471910113</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="G71">
-        <v>0.4490049751243781</v>
+        <v>0.4019975031210986</v>
       </c>
       <c r="H71">
-        <v>0.33</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.4778761061946903</v>
+        <v>0.5</v>
       </c>
       <c r="C72">
-        <v>0.5132139812446718</v>
+        <v>0.5171806167400881</v>
       </c>
       <c r="D72">
-        <v>0.4033613445378151</v>
+        <v>0.4296875</v>
       </c>
       <c r="E72">
-        <v>0.4839124839124839</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="F72">
-        <v>0.3608247422680412</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="G72">
-        <v>0.4432098765432099</v>
+        <v>0.3982412060301507</v>
       </c>
       <c r="H72">
-        <v>0.332</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.4509803921568628</v>
+        <v>0.4854368932038835</v>
       </c>
       <c r="C73">
-        <v>0.5108742004264393</v>
+        <v>0.5161572052401747</v>
       </c>
       <c r="D73">
-        <v>0.4205607476635514</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="E73">
-        <v>0.4809960681520314</v>
+        <v>0.446524064171123</v>
       </c>
       <c r="F73">
-        <v>0.3762376237623762</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="G73">
-        <v>0.443609022556391</v>
+        <v>0.3911949685534591</v>
       </c>
       <c r="H73">
-        <v>0.342</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.5304347826086957</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="C74">
-        <v>0.510486577181208</v>
+        <v>0.5155306298533219</v>
       </c>
       <c r="D74">
-        <v>0.3863636363636364</v>
+        <v>0.432</v>
       </c>
       <c r="E74">
-        <v>0.4734799482535575</v>
+        <v>0.4573333333333333</v>
       </c>
       <c r="F74">
-        <v>0.4074074074074074</v>
+        <v>0.3645833333333333</v>
       </c>
       <c r="G74">
-        <v>0.4415094339622642</v>
+        <v>0.392991239048811</v>
       </c>
       <c r="H74">
-        <v>0.346</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.485981308411215</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C75">
-        <v>0.5056842105263157</v>
+        <v>0.516295025728988</v>
       </c>
       <c r="D75">
-        <v>0.3846153846153846</v>
+        <v>0.4672131147540984</v>
       </c>
       <c r="E75">
-        <v>0.4772727272727273</v>
+        <v>0.4593175853018373</v>
       </c>
       <c r="F75">
-        <v>0.4411764705882353</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G75">
-        <v>0.4291187739463602</v>
+        <v>0.3992490613266583</v>
       </c>
       <c r="H75">
-        <v>0.36</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.5566037735849056</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="C76">
-        <v>0.5080946450809465</v>
+        <v>0.5139240506329114</v>
       </c>
       <c r="D76">
-        <v>0.3720930232558139</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E76">
-        <v>0.4785522788203753</v>
+        <v>0.454661558109834</v>
       </c>
       <c r="F76">
-        <v>0.4094488188976378</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="G76">
-        <v>0.4243964421855146</v>
+        <v>0.4034440344403444</v>
       </c>
       <c r="H76">
-        <v>0.368</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.5384615384615384</v>
+        <v>0.4824561403508772</v>
       </c>
       <c r="C77">
-        <v>0.5051208521097911</v>
+        <v>0.5144654088050314</v>
       </c>
       <c r="D77">
-        <v>0.3983739837398374</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="E77">
-        <v>0.4758169934640523</v>
+        <v>0.4612403100775194</v>
       </c>
       <c r="F77">
-        <v>0.3790322580645161</v>
+        <v>0.3222222222222222</v>
       </c>
       <c r="G77">
-        <v>0.4296675191815857</v>
+        <v>0.4039653035935564</v>
       </c>
       <c r="H77">
-        <v>0.36</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.5700934579439252</v>
+        <v>0.4396551724137931</v>
       </c>
       <c r="C78">
-        <v>0.5076923076923077</v>
+        <v>0.5115416323165705</v>
       </c>
       <c r="D78">
-        <v>0.3474576271186441</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="E78">
-        <v>0.4730077120822622</v>
+        <v>0.4668335419274093</v>
       </c>
       <c r="F78">
-        <v>0.4181818181818182</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="G78">
-        <v>0.4292929292929293</v>
+        <v>0.4043848964677223</v>
       </c>
       <c r="H78">
-        <v>0.372</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5192307692307693</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C79">
-        <v>0.5034260378879484</v>
+        <v>0.5104808877928483</v>
       </c>
       <c r="D79">
-        <v>0.3364485981308411</v>
+        <v>0.4141414141414141</v>
       </c>
       <c r="E79">
-        <v>0.4742268041237113</v>
+        <v>0.4560509554140127</v>
       </c>
       <c r="F79">
-        <v>0.3958333333333333</v>
+        <v>0.3690476190476191</v>
       </c>
       <c r="G79">
-        <v>0.4235588972431077</v>
+        <v>0.4034229828850856</v>
       </c>
       <c r="H79">
-        <v>0.378</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.4897959183673469</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="C80">
-        <v>0.502</v>
+        <v>0.5091352009744214</v>
       </c>
       <c r="D80">
-        <v>0.4201680672268908</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="E80">
-        <v>0.4743589743589743</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="F80">
-        <v>0.3877551020408163</v>
+        <v>0.3917525773195876</v>
       </c>
       <c r="G80">
-        <v>0.4250309789343247</v>
+        <v>0.4014778325123153</v>
       </c>
       <c r="H80">
-        <v>0.378</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.4526315789473684</v>
+        <v>0.4830508474576271</v>
       </c>
       <c r="C81">
-        <v>0.5003996802557954</v>
+        <v>0.5085965613754498</v>
       </c>
       <c r="D81">
-        <v>0.3947368421052632</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="E81">
-        <v>0.471523178807947</v>
+        <v>0.46</v>
       </c>
       <c r="F81">
-        <v>0.3402061855670103</v>
+        <v>0.3229166666666667</v>
       </c>
       <c r="G81">
-        <v>0.4176100628930818</v>
+        <v>0.4056372549019608</v>
       </c>
       <c r="H81">
-        <v>0.376</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.4854368932038835</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C82">
-        <v>0.5035714285714286</v>
+        <v>0.5075878594249201</v>
       </c>
       <c r="D82">
-        <v>0.4222222222222222</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="E82">
-        <v>0.472630173564753</v>
+        <v>0.4781491002570694</v>
       </c>
       <c r="F82">
-        <v>0.3025210084033613</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="G82">
-        <v>0.4157160963244613</v>
+        <v>0.4034653465346535</v>
       </c>
       <c r="H82">
-        <v>0.382</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.4563106796116505</v>
+        <v>0.4351851851851852</v>
       </c>
       <c r="C83">
-        <v>0.5025722200237436</v>
+        <v>0.5074334898278561</v>
       </c>
       <c r="D83">
-        <v>0.4113475177304964</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="E83">
-        <v>0.4697173620457604</v>
+        <v>0.4816223067173637</v>
       </c>
       <c r="F83">
-        <v>0.3508771929824561</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="G83">
-        <v>0.4162371134020619</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="H83">
-        <v>0.38</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5142857142857142</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="C84">
-        <v>0.5023455824863174</v>
+        <v>0.5093240093240093</v>
       </c>
       <c r="D84">
-        <v>0.4173913043478261</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="E84">
-        <v>0.4631578947368421</v>
+        <v>0.4847715736040609</v>
       </c>
       <c r="F84">
-        <v>0.3714285714285714</v>
+        <v>0.3434343434343434</v>
       </c>
       <c r="G84">
-        <v>0.40375</v>
+        <v>0.3923739237392374</v>
       </c>
       <c r="H84">
-        <v>0.384</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.4621848739495799</v>
+        <v>0.5779816513761468</v>
       </c>
       <c r="C85">
-        <v>0.4986418315871168</v>
+        <v>0.5034749034749034</v>
       </c>
       <c r="D85">
-        <v>0.4257425742574257</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="E85">
-        <v>0.4556962025316456</v>
+        <v>0.4783163265306122</v>
       </c>
       <c r="F85">
-        <v>0.4086021505376344</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="G85">
-        <v>0.4046740467404674</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="H85">
-        <v>0.376</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.4299065420560748</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="C86">
-        <v>0.4986460348162476</v>
+        <v>0.5001914975105324</v>
       </c>
       <c r="D86">
-        <v>0.4038461538461539</v>
+        <v>0.4649122807017544</v>
       </c>
       <c r="E86">
-        <v>0.4628930817610063</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="F86">
-        <v>0.3626373626373626</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="G86">
-        <v>0.403680981595092</v>
+        <v>0.3742177722152691</v>
       </c>
       <c r="H86">
-        <v>0.368</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.4655172413793103</v>
+        <v>0.5765765765765766</v>
       </c>
       <c r="C87">
-        <v>0.5028658769583493</v>
+        <v>0.5019011406844106</v>
       </c>
       <c r="D87">
-        <v>0.3873873873873874</v>
+        <v>0.4297520661157025</v>
       </c>
       <c r="E87">
-        <v>0.4726114649681529</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="F87">
-        <v>0.2277227722772277</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="G87">
-        <v>0.4049382716049383</v>
+        <v>0.3855721393034826</v>
       </c>
       <c r="H87">
-        <v>0.36</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.4672897196261682</v>
+        <v>0.584070796460177</v>
       </c>
       <c r="C88">
-        <v>0.4994303076338777</v>
+        <v>0.5007552870090635</v>
       </c>
       <c r="D88">
-        <v>0.325</v>
+        <v>0.4070796460176991</v>
       </c>
       <c r="E88">
-        <v>0.4738853503184713</v>
+        <v>0.4798439531859558</v>
       </c>
       <c r="F88">
-        <v>0.287037037037037</v>
+        <v>0.3775510204081632</v>
       </c>
       <c r="G88">
-        <v>0.4141791044776119</v>
+        <v>0.3804213135068154</v>
       </c>
       <c r="H88">
-        <v>0.35</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.5046728971962616</v>
+        <v>0.5175438596491229</v>
       </c>
       <c r="C89">
-        <v>0.4971857410881801</v>
+        <v>0.5024299065420561</v>
       </c>
       <c r="D89">
-        <v>0.3738317757009346</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="E89">
-        <v>0.4714104193138501</v>
+        <v>0.4780361757105943</v>
       </c>
       <c r="F89">
-        <v>0.3267326732673267</v>
+        <v>0.3689320388349515</v>
       </c>
       <c r="G89">
-        <v>0.4054388133498146</v>
+        <v>0.3854818523153942</v>
       </c>
       <c r="H89">
-        <v>0.336</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.4897959183673469</v>
+        <v>0.46</v>
       </c>
       <c r="C90">
-        <v>0.4966266866566716</v>
+        <v>0.5033507073715562</v>
       </c>
       <c r="D90">
-        <v>0.3944954128440367</v>
+        <v>0.3185840707964602</v>
       </c>
       <c r="E90">
-        <v>0.4668400520156047</v>
+        <v>0.4824902723735409</v>
       </c>
       <c r="F90">
-        <v>0.3478260869565217</v>
+        <v>0.4018691588785047</v>
       </c>
       <c r="G90">
-        <v>0.4007537688442211</v>
+        <v>0.3825757575757576</v>
       </c>
       <c r="H90">
-        <v>0.328</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.5089285714285714</v>
+        <v>0.4270833333333333</v>
       </c>
       <c r="C91">
-        <v>0.4962935507783544</v>
+        <v>0.5046006624953994</v>
       </c>
       <c r="D91">
-        <v>0.359375</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="E91">
-        <v>0.4613368283093054</v>
+        <v>0.4689922480620155</v>
       </c>
       <c r="F91">
-        <v>0.3035714285714285</v>
+        <v>0.4311926605504587</v>
       </c>
       <c r="G91">
-        <v>0.3967661691542289</v>
+        <v>0.3843236409608091</v>
       </c>
       <c r="H91">
-        <v>0.33</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.4537037037037037</v>
+        <v>0.4519230769230769</v>
       </c>
       <c r="C92">
-        <v>0.4950055493895671</v>
+        <v>0.5032870708546384</v>
       </c>
       <c r="D92">
-        <v>0.3688524590163935</v>
+        <v>0.4491525423728814</v>
       </c>
       <c r="E92">
-        <v>0.4623513870541612</v>
+        <v>0.4536082474226804</v>
       </c>
       <c r="F92">
-        <v>0.35</v>
+        <v>0.4356435643564356</v>
       </c>
       <c r="G92">
-        <v>0.4010088272383354</v>
+        <v>0.3920099875156055</v>
       </c>
       <c r="H92">
-        <v>0.316</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.5048543689320388</v>
+        <v>0.5392156862745098</v>
       </c>
       <c r="C93">
-        <v>0.4963343108504399</v>
+        <v>0.5009067827348568</v>
       </c>
       <c r="D93">
-        <v>0.4214876033057851</v>
+        <v>0.3983050847457627</v>
       </c>
       <c r="E93">
-        <v>0.4600262123197903</v>
+        <v>0.4397435897435897</v>
       </c>
       <c r="F93">
-        <v>0.3939393939393939</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="G93">
-        <v>0.3967459324155194</v>
+        <v>0.3992628992628993</v>
       </c>
       <c r="H93">
-        <v>0.302</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.4774774774774775</v>
+        <v>0.5327102803738317</v>
       </c>
       <c r="C94">
-        <v>0.4954627949183303</v>
+        <v>0.4953405017921147</v>
       </c>
       <c r="D94">
-        <v>0.4628099173553719</v>
+        <v>0.453781512605042</v>
       </c>
       <c r="E94">
-        <v>0.4563233376792699</v>
+        <v>0.4457215836526182</v>
       </c>
       <c r="F94">
-        <v>0.3838383838383838</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="G94">
-        <v>0.3952912019826518</v>
+        <v>0.4016990291262136</v>
       </c>
       <c r="H94">
-        <v>0.294</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.4324324324324325</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C95">
-        <v>0.4962052764727141</v>
+        <v>0.496605930689532</v>
       </c>
       <c r="D95">
-        <v>0.4033613445378151</v>
+        <v>0.5137614678899083</v>
       </c>
       <c r="E95">
-        <v>0.4486345903771131</v>
+        <v>0.4431524547803617</v>
       </c>
       <c r="F95">
-        <v>0.2929292929292929</v>
+        <v>0.4020618556701031</v>
       </c>
       <c r="G95">
-        <v>0.3955500618046972</v>
+        <v>0.4137086903304774</v>
       </c>
       <c r="H95">
-        <v>0.294</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.4471544715447154</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="C96">
-        <v>0.4974964234620887</v>
+        <v>0.496074232690935</v>
       </c>
       <c r="D96">
-        <v>0.3652173913043478</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="E96">
-        <v>0.4494238156209987</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="F96">
-        <v>0.3240740740740741</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="G96">
-        <v>0.4012269938650307</v>
+        <v>0.4132334581772784</v>
       </c>
       <c r="H96">
-        <v>0.28</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.3846153846153846</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="C97">
-        <v>0.4978601997146933</v>
+        <v>0.4950669485553206</v>
       </c>
       <c r="D97">
-        <v>0.35</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E97">
-        <v>0.4512040557667934</v>
+        <v>0.445997458703939</v>
       </c>
       <c r="F97">
-        <v>0.3555555555555556</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="G97">
-        <v>0.3942786069651741</v>
+        <v>0.4122699386503068</v>
       </c>
       <c r="H97">
-        <v>0.288</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.4220183486238532</v>
+        <v>0.5145631067961165</v>
       </c>
       <c r="C98">
-        <v>0.4992912827781715</v>
+        <v>0.4957716701902748</v>
       </c>
       <c r="D98">
-        <v>0.3716814159292036</v>
+        <v>0.4077669902912621</v>
       </c>
       <c r="E98">
-        <v>0.4440203562340967</v>
+        <v>0.4344473007712082</v>
       </c>
       <c r="F98">
-        <v>0.3823529411764706</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="G98">
-        <v>0.3925465838509317</v>
+        <v>0.4080604534005038</v>
       </c>
       <c r="H98">
-        <v>0.292</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.4134615384615384</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="C99">
-        <v>0.4977072310405644</v>
+        <v>0.4982529699510831</v>
       </c>
       <c r="D99">
-        <v>0.45</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="E99">
-        <v>0.4402102496714849</v>
+        <v>0.437984496124031</v>
       </c>
       <c r="F99">
-        <v>0.3981481481481481</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="G99">
-        <v>0.3969465648854962</v>
+        <v>0.4047919293820933</v>
       </c>
       <c r="H99">
-        <v>0.288</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.4222222222222222</v>
+        <v>0.4910714285714285</v>
       </c>
       <c r="C100">
-        <v>0.4980842911877394</v>
+        <v>0.4963401882188916</v>
       </c>
       <c r="D100">
-        <v>0.3688524590163935</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="E100">
-        <v>0.4348958333333333</v>
+        <v>0.4420772303595206</v>
       </c>
       <c r="F100">
-        <v>0.3451327433628318</v>
+        <v>0.3627450980392157</v>
       </c>
       <c r="G100">
-        <v>0.3919089759797724</v>
+        <v>0.4022842639593909</v>
       </c>
       <c r="H100">
-        <v>0.298</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.5263157894736842</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C101">
-        <v>0.49570299071846</v>
+        <v>0.4974021475580187</v>
       </c>
       <c r="D101">
-        <v>0.3706896551724138</v>
+        <v>0.3821138211382114</v>
       </c>
       <c r="E101">
-        <v>0.4423076923076923</v>
+        <v>0.445910290237467</v>
       </c>
       <c r="F101">
-        <v>0.3396226415094339</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="G101">
-        <v>0.3939774153074028</v>
+        <v>0.4113924050632912</v>
       </c>
       <c r="H101">
-        <v>0.31</v>
+        <v>0.342</v>
       </c>
     </row>
   </sheetData>
